--- a/data/trans_camb/P14_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,47</t>
+          <t>1,1; 8,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,36</t>
+          <t>0,44; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,74</t>
+          <t>1,4; 6,96</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>693,71%</t>
+          <t>640,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>318,72%</t>
+          <t>288,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>447,95%</t>
+          <t>413,48%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,56; —</t>
+          <t>-50,05; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,39; 2457,35</t>
+          <t>5,57; 2034,88</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,49</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 11,73</t>
+          <t>1,2; 10,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,4</t>
+          <t>1,75; 10,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,29</t>
+          <t>2,42; 9,2</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>263,6%</t>
+          <t>237,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>141,54%</t>
+          <t>144,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>187,67%</t>
+          <t>178,28%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 1367,83</t>
+          <t>4,46; 1238,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 496,09</t>
+          <t>16,5; 469,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,88; 468,91</t>
+          <t>46,46; 480,62</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>6,43</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,78</t>
+          <t>4,13; 12,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,65</t>
+          <t>0,98; 8,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,7</t>
+          <t>3,89; 9,34</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>320,6%</t>
+          <t>305,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>121,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>145,33%</t>
+          <t>195,49%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,18; 984,93</t>
+          <t>83,05; 979,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 232,62</t>
+          <t>9,77; 367,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,11; 328,2</t>
+          <t>84,2; 432,13</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,54</t>
+          <t>-2,48; 5,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,16</t>
+          <t>0,41; 7,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,28</t>
+          <t>0,32; 5,18</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>104,26%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>57,63%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 151,71</t>
+          <t>-35,71; 149,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,39; 324,88</t>
+          <t>2,1; 295,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 153,36</t>
+          <t>4,09; 158,16</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>5,27</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,08</t>
+          <t>0,15; 9,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,7</t>
+          <t>1,84; 10,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,62</t>
+          <t>2,13; 8,34</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>146,76%</t>
+          <t>139,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>121,34%</t>
+          <t>117,64%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,47; 322,99</t>
+          <t>-3,22; 364,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,43; 463,71</t>
+          <t>21,36; 447,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>30,61; 289,35</t>
+          <t>35,01; 269,99</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,09</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,38; 11,12</t>
+          <t>0,39; 9,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,11</t>
+          <t>0,21; 5,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,42</t>
+          <t>0,77; 6,14</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>347,48%</t>
+          <t>288,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>216,16%</t>
+          <t>171,39%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>266,7%</t>
+          <t>215,49%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-55,66; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 1305,13</t>
+          <t>-6,92; 925,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,09; 984,08</t>
+          <t>19,69; 890,45</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,47</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,66</t>
+          <t>2,94; 6,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,84</t>
+          <t>2,79; 5,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,64</t>
+          <t>3,31; 5,66</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>171,41%</t>
+          <t>159,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>124,11%</t>
+          <t>137,88%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>145,37%</t>
+          <t>148,22%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>90,16; 293,82</t>
+          <t>81,07; 285,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>49,01; 218,9</t>
+          <t>68,93; 224,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>87,86; 221,07</t>
+          <t>92,82; 219,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.961842479048584</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.691058930564935</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.830539822300411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 8,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 7,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 6,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.097963268034329</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.4361321036713684</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.317264245092924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>640,07%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>288,6%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>413,48%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.741496932571456</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.796343558513071</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.507062177136436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-50,05; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 2034,88</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.044665000905541</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2.88011871472421</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.185706666002408</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.5219039149927573</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07275237702014223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 10,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 10,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 9,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>20.31022510285544</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>237,62%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>144,02%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>178,28%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.308549549392846</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.56828034168355</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.443529562410979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 1238,62</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>16,5; 469,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>46,46; 480,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.237604048631942</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.547513420929958</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.412349135481485</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.80669895996281</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.25617130431403</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.105733642630343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 12,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 8,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,89; 9,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>2.479141866430911</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.373528936110968</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.789389461136961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>305,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>121,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>195,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.06435767613069707</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.153765505302461</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.4967230769792846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>83,05; 979,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,77; 367,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>84,2; 432,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>12.01676003121937</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4.499679923830628</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>4.724544619448488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +769,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.43933221566842</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.672332890010838</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6.014698298787543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 5,32</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 7,32</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 5,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>4.334285430456227</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.393701917358737</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2.98254883600824</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>27,1%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>99,62%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>57,63%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.87878250952215</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.343544458528442</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.971979036472522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-35,71; 149,43</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 295,43</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 158,16</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>3.429414463381065</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.7935284799244932</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.692300559181545</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.9572408928043323</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2593733632761495</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.4761065413815923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 9,95</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 10,77</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 8,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>10.53756369985024</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.830330236648695</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>3.758504714933232</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>98,31%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>139,11%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>117,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.434991290672536</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.844789321296095</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.676918296627337</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 364,64</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>21,36; 447,03</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>35,01; 269,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.52709905823141</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.634723065386654</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3939835980394295</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.31748666918437</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.43681634142457</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.319569031147064</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 9,75</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 5,85</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 6,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.2653820283965987</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.047285804747042</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.5937266213552057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>288,62%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>171,39%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>215,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3579188972794898</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.0397074828853056</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.05243895480808849</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 925,21</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>19,69; 890,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.507426818320224</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3.07603018687605</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.566016360593519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +981,311 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>4.51176904020862</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5.941198672876157</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>5.231804157864837</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 6,36</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 5,76</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 5,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.08271892667920887</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>1.889137172664904</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>2.175622488550961</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>159,9%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>137,88%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>148,22%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>9.520652042292712</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>10.78488929374864</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>8.359337850861554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>81,07; 285,4</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>68,93; 224,5</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>92,82; 219,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.9694590958868393</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>1.437524088887167</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>1.191525029637023</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.04249859903755328</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.2370239223535085</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.3682724063340523</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>3.659883112657963</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>4.486186091885959</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>2.802995561195117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>3.817715325279719</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>2.775641482204596</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>3.229606367536787</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.5926608529330342</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0.3790354634277908</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0.9973699997749554</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>10.44361574685923</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>5.904509842531465</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>6.364491287757406</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>3.436596713065437</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>1.945829214061962</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>2.50274164776445</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="n">
+        <v>-0.005403324175702045</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0.3334973633529431</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>9.796113687728397</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>10.15323691813909</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>4.654303629862524</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>4.127005770993542</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>4.384623872345891</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>2.989272355512102</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>2.545604276369825</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>3.148839608642145</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>6.373979440734312</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>5.632695309945887</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.539164804493289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1.672638551272009</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>1.284543944502992</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>1.460233925375026</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0.8530709518136818</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.6060721922768355</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0.8768655693370135</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>2.963372925397572</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>2.150482040837967</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>2.195796062692506</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1293,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
